--- a/TQS_AccreditationTest.xlsx
+++ b/TQS_AccreditationTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doconnor\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F695EE3F-AC4B-4577-9F8D-8732943B4A41}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91A54AE4-D109-4B80-B0D2-54CDB32C350F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3820" xr2:uid="{C36826A0-F9D1-496B-9DE0-28FB02E71B9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="111">
   <si>
     <t>Selected(x)</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>Performance</t>
-  </si>
-  <si>
-    <t>Production Rate</t>
   </si>
   <si>
     <t>Performance;</t>
@@ -360,6 +357,12 @@
   </si>
   <si>
     <t>Uniquer||Quality;[GUID]||{a19cd8f1-228b-4292-9730-8aa131b9d872};[GUID]||[UNSET];</t>
+  </si>
+  <si>
+    <t>New Attribute</t>
+  </si>
+  <si>
+    <t>Production Rate_Rename</t>
   </si>
 </sst>
 </file>
@@ -738,9 +741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AF99B7-E4DC-42F1-A77F-C1B2C38422CD}">
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1571,7 +1576,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>69</v>
@@ -1624,11 +1629,9 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -1665,7 +1668,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>69</v>
@@ -1759,7 +1762,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>69</v>
@@ -1777,7 +1780,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
@@ -1815,7 +1818,7 @@
         <v>71</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -1853,7 +1856,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>69</v>
@@ -1871,7 +1874,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
@@ -1903,12 +1906,14 @@
         <v>57</v>
       </c>
       <c r="AA12" s="5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC12" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -1945,7 +1950,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>69</v>
@@ -1963,7 +1968,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
@@ -1995,14 +2000,12 @@
         <v>57</v>
       </c>
       <c r="AA13" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -2039,7 +2042,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>69</v>
@@ -2095,7 +2098,7 @@
         <v>71</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
@@ -2133,7 +2136,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>69</v>
@@ -2151,7 +2154,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
@@ -2177,19 +2180,19 @@
         <v>57</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AA15" s="4" t="s">
-        <v>91</v>
+      <c r="AA15" s="5">
+        <v>0</v>
       </c>
       <c r="AB15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
@@ -2227,7 +2230,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>69</v>
@@ -2245,7 +2248,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
@@ -2268,22 +2271,22 @@
         <v>0</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AA16" s="5">
-        <v>0</v>
+      <c r="AA16" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="AB16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
@@ -2321,7 +2324,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>69</v>
@@ -2339,7 +2342,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
@@ -2362,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>70</v>
@@ -2371,13 +2374,13 @@
         <v>57</v>
       </c>
       <c r="AA17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>97</v>
+        <v>71</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
@@ -2407,7 +2410,7 @@
       <c r="BC17" s="4"/>
       <c r="BD17" s="4"/>
     </row>
-    <row r="18" spans="1:56" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
@@ -2415,10 +2418,10 @@
         <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
@@ -2437,39 +2440,49 @@
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ18" s="5" t="b">
+      <c r="R18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA18" s="5">
         <v>1</v>
       </c>
+      <c r="AB18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="5"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
@@ -2491,7 +2504,7 @@
       <c r="BC18" s="4"/>
       <c r="BD18" s="4"/>
     </row>
-    <row r="19" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -2499,7 +2512,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>60</v>
@@ -2537,18 +2550,20 @@
         <v>57</v>
       </c>
       <c r="AE19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AF19" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="AG19" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI19" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="AJ19" s="5" t="b">
         <v>1</v>
       </c>
@@ -2573,7 +2588,7 @@
       <c r="BC19" s="4"/>
       <c r="BD19" s="4"/>
     </row>
-    <row r="20" spans="1:56" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -2581,7 +2596,7 @@
         <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>60</v>
@@ -2619,20 +2634,18 @@
         <v>57</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF20" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI20" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AI20" s="4"/>
       <c r="AJ20" s="5" t="b">
         <v>1</v>
       </c>
@@ -2657,7 +2670,7 @@
       <c r="BC20" s="4"/>
       <c r="BD20" s="4"/>
     </row>
-    <row r="21" spans="1:56" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
@@ -2665,7 +2678,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>60</v>
@@ -2703,19 +2716,19 @@
         <v>57</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AG21" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AH21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI21" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="AI21" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="AJ21" s="5" t="b">
         <v>1</v>
@@ -2741,63 +2754,89 @@
       <c r="BC21" s="4"/>
       <c r="BD21" s="4"/>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1"/>
-      <c r="BB22" s="1"/>
-      <c r="BC22" s="1"/>
-      <c r="BD22" s="1"/>
+    <row r="22" spans="1:56" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
@@ -2857,6 +2896,64 @@
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
     </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
